--- a/Team-Data/2008-09/1-26-2008-09.xlsx
+++ b/Team-Data/2008-09/1-26-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,46 +733,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.591</v>
+        <v>0.605</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>35.9</v>
+        <v>36.1</v>
       </c>
       <c r="J2" t="n">
-        <v>78.8</v>
+        <v>79</v>
       </c>
       <c r="K2" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L2" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M2" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0.369</v>
+        <v>0.372</v>
       </c>
       <c r="O2" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P2" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.743</v>
+        <v>0.744</v>
       </c>
       <c r="R2" t="n">
         <v>10.6</v>
@@ -714,58 +781,58 @@
         <v>29.7</v>
       </c>
       <c r="T2" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="U2" t="n">
-        <v>21.4</v>
+        <v>21.7</v>
       </c>
       <c r="V2" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="W2" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X2" t="n">
         <v>4.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG2" t="n">
         <v>9</v>
       </c>
-      <c r="AG2" t="n">
-        <v>10</v>
-      </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
@@ -774,13 +841,13 @@
         <v>3</v>
       </c>
       <c r="AN2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP2" t="n">
         <v>15</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>13</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
@@ -789,16 +856,16 @@
         <v>19</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
@@ -807,16 +874,16 @@
         <v>18</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA2" t="n">
         <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -848,22 +915,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8</v>
+        <v>0.804</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J3" t="n">
         <v>77</v>
@@ -878,28 +945,28 @@
         <v>17.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.388</v>
+        <v>0.385</v>
       </c>
       <c r="O3" t="n">
         <v>20.3</v>
       </c>
       <c r="P3" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.773</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T3" t="n">
-        <v>42.8</v>
+        <v>42.7</v>
       </c>
       <c r="U3" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V3" t="n">
         <v>15.9</v>
@@ -908,25 +975,25 @@
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.4</v>
+        <v>101.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,10 +1005,10 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
@@ -950,13 +1017,13 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
         <v>6</v>
@@ -965,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>16</v>
@@ -974,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU3" t="n">
         <v>5</v>
@@ -986,13 +1053,13 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA3" t="n">
         <v>4</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -1108,10 +1175,10 @@
         <v>-1.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>20</v>
@@ -1129,16 +1196,16 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
         <v>20</v>
@@ -1162,10 +1229,10 @@
         <v>18</v>
       </c>
       <c r="AV4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX4" t="n">
         <v>19</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
         <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>0.386</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>83.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L5" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N5" t="n">
         <v>0.374</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.794</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
         <v>11.9</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
         <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V5" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W5" t="n">
         <v>7.3</v>
@@ -1275,40 +1342,40 @@
         <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.8</v>
+        <v>-3.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK5" t="n">
         <v>26</v>
@@ -1320,13 +1387,13 @@
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1341,25 +1408,25 @@
         <v>11</v>
       </c>
       <c r="AU5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
         <v>23</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -1394,121 +1461,121 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="n">
         <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>0.829</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J6" t="n">
-        <v>78.3</v>
+        <v>78</v>
       </c>
       <c r="K6" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L6" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.371</v>
+        <v>0.368</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R6" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
         <v>41.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V6" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="W6" t="n">
         <v>7.9</v>
       </c>
       <c r="X6" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.2</v>
+        <v>100.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.1</v>
+        <v>10.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>18</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
@@ -1520,13 +1587,13 @@
         <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
         <v>7</v>
@@ -1538,10 +1605,10 @@
         <v>5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BB6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>0.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1711,10 +1778,10 @@
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>8</v>
@@ -1729,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="BC7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
@@ -1851,10 +1918,10 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1866,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1884,7 +1951,7 @@
         <v>12</v>
       </c>
       <c r="AT8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
@@ -1911,7 +1978,7 @@
         <v>3</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF9" t="n">
         <v>12</v>
@@ -2030,13 +2097,13 @@
         <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI9" t="n">
         <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -2087,13 +2154,13 @@
         <v>17</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>27</v>
       </c>
       <c r="BC9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2318,7 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV10" t="n">
         <v>19</v>
@@ -2266,7 +2333,7 @@
         <v>25</v>
       </c>
       <c r="AZ10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="n">
         <v>28</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>0.609</v>
+        <v>0.622</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2322,43 +2389,43 @@
         <v>35.4</v>
       </c>
       <c r="J11" t="n">
-        <v>79.5</v>
+        <v>79.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0.445</v>
+        <v>0.447</v>
       </c>
       <c r="L11" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M11" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O11" t="n">
         <v>19.6</v>
       </c>
       <c r="P11" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R11" t="n">
         <v>10.4</v>
       </c>
       <c r="S11" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T11" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U11" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W11" t="n">
         <v>6.6</v>
@@ -2367,31 +2434,31 @@
         <v>3.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB11" t="n">
         <v>97.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -2400,22 +2467,22 @@
         <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK11" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM11" t="n">
         <v>9</v>
       </c>
       <c r="AN11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2430,19 +2497,19 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU11" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
       </c>
       <c r="AX11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY11" t="n">
         <v>22</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -2564,19 +2631,19 @@
         <v>-2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI12" t="n">
         <v>3</v>
@@ -2597,10 +2664,10 @@
         <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>4</v>
@@ -2612,16 +2679,16 @@
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU12" t="n">
         <v>4</v>
       </c>
       <c r="AV12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX12" t="n">
         <v>12</v>
@@ -2630,7 +2697,7 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>12</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -2668,25 +2735,25 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" t="n">
-        <v>0.227</v>
+        <v>0.233</v>
       </c>
       <c r="H13" t="n">
         <v>48.7</v>
       </c>
       <c r="I13" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="J13" t="n">
-        <v>82.09999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="K13" t="n">
         <v>0.429</v>
@@ -2695,10 +2762,10 @@
         <v>5.4</v>
       </c>
       <c r="M13" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.329</v>
+        <v>0.327</v>
       </c>
       <c r="O13" t="n">
         <v>17.3</v>
@@ -2707,16 +2774,16 @@
         <v>23.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R13" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S13" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="T13" t="n">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="U13" t="n">
         <v>19.9</v>
@@ -2728,10 +2795,10 @@
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z13" t="n">
         <v>21.2</v>
@@ -2740,13 +2807,13 @@
         <v>19.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>93.3</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-7.5</v>
+        <v>-7.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2758,7 +2825,7 @@
         <v>27</v>
       </c>
       <c r="AH13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI13" t="n">
         <v>27</v>
@@ -2770,7 +2837,7 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM13" t="n">
         <v>20</v>
@@ -2782,19 +2849,19 @@
         <v>26</v>
       </c>
       <c r="AP13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
         <v>24</v>
       </c>
       <c r="AR13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU13" t="n">
         <v>25</v>
@@ -2803,16 +2870,16 @@
         <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" t="n">
         <v>8</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39.9</v>
+        <v>39.8</v>
       </c>
       <c r="J14" t="n">
-        <v>83.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.477</v>
@@ -2877,31 +2944,31 @@
         <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>18.7</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.377</v>
+        <v>0.381</v>
       </c>
       <c r="O14" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="P14" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>43.8</v>
+        <v>44</v>
       </c>
       <c r="U14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V14" t="n">
         <v>13.8</v>
@@ -2919,25 +2986,25 @@
         <v>19.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.9</v>
+        <v>107.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>29</v>
@@ -2949,7 +3016,7 @@
         <v>6</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,16 +3034,16 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS14" t="n">
         <v>6</v>
       </c>
-      <c r="AS14" t="n">
-        <v>8</v>
-      </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3167,10 +3234,10 @@
         <v>17</v>
       </c>
       <c r="AW15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
         <v>17</v>
@@ -3185,7 +3252,7 @@
         <v>29</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" t="n">
         <v>19</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.548</v>
       </c>
       <c r="H16" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>81</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K16" t="n">
         <v>0.447</v>
@@ -3253,67 +3320,67 @@
         <v>23.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.741</v>
+        <v>0.74</v>
       </c>
       <c r="R16" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S16" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T16" t="n">
         <v>39.8</v>
       </c>
       <c r="U16" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V16" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="W16" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z16" t="n">
         <v>20.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB16" t="n">
         <v>96.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
         <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
         <v>14</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL16" t="n">
         <v>13</v>
@@ -3328,10 +3395,10 @@
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR16" t="n">
         <v>22</v>
@@ -3352,13 +3419,13 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
         <v>10</v>
       </c>
       <c r="AZ16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA16" t="n">
         <v>26</v>
@@ -3367,7 +3434,7 @@
         <v>23</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -3414,19 +3481,19 @@
         <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>81.90000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="L17" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M17" t="n">
         <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.348</v>
+        <v>0.355</v>
       </c>
       <c r="O17" t="n">
         <v>19.5</v>
@@ -3441,37 +3508,37 @@
         <v>12.4</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="T17" t="n">
-        <v>42</v>
+        <v>41.7</v>
       </c>
       <c r="U17" t="n">
         <v>21.3</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.8</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
         <v>22.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,7 +3547,7 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
         <v>22</v>
@@ -3504,13 +3571,13 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
         <v>9</v>
@@ -3519,7 +3586,7 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT17" t="n">
         <v>13</v>
@@ -3531,22 +3598,22 @@
         <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -3578,37 +3645,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F18" t="n">
         <v>27</v>
       </c>
       <c r="G18" t="n">
-        <v>0.372</v>
+        <v>0.357</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="J18" t="n">
-        <v>83.7</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L18" t="n">
         <v>5.8</v>
       </c>
       <c r="M18" t="n">
-        <v>16.9</v>
+        <v>16.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.345</v>
+        <v>0.347</v>
       </c>
       <c r="O18" t="n">
         <v>19</v>
@@ -3617,22 +3684,22 @@
         <v>25</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.762</v>
+        <v>0.759</v>
       </c>
       <c r="R18" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S18" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U18" t="n">
         <v>20.4</v>
       </c>
       <c r="V18" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W18" t="n">
         <v>6.4</v>
@@ -3644,19 +3711,19 @@
         <v>6.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA18" t="n">
         <v>20.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3</v>
+        <v>-3.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
@@ -3674,7 +3741,7 @@
         <v>13</v>
       </c>
       <c r="AJ18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK18" t="n">
         <v>28</v>
@@ -3701,13 +3768,13 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT18" t="n">
         <v>10</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV18" t="n">
         <v>15</v>
@@ -3716,22 +3783,22 @@
         <v>28</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA18" t="n">
         <v>20</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>22</v>
       </c>
       <c r="BB18" t="n">
         <v>15</v>
       </c>
       <c r="BC18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -3760,49 +3827,49 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" t="n">
         <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" t="n">
-        <v>0.444</v>
+        <v>0.455</v>
       </c>
       <c r="H19" t="n">
         <v>48.7</v>
       </c>
       <c r="I19" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J19" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L19" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M19" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.373</v>
+        <v>0.376</v>
       </c>
       <c r="O19" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="P19" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R19" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S19" t="n">
         <v>29.6</v>
@@ -3814,31 +3881,31 @@
         <v>19.2</v>
       </c>
       <c r="V19" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W19" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="X19" t="n">
         <v>4.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z19" t="n">
         <v>23.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.2</v>
+        <v>98.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-3</v>
+        <v>-2.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3850,31 +3917,31 @@
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
         <v>27</v>
       </c>
       <c r="AL19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AM19" t="n">
         <v>6</v>
       </c>
       <c r="AN19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
         <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AQ19" t="n">
         <v>10</v>
@@ -3886,7 +3953,7 @@
         <v>20</v>
       </c>
       <c r="AT19" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU19" t="n">
         <v>29</v>
@@ -3895,25 +3962,25 @@
         <v>10</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -3942,37 +4009,37 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" t="n">
         <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.659</v>
+        <v>0.65</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J20" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L20" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.394</v>
+        <v>0.392</v>
       </c>
       <c r="O20" t="n">
         <v>18.3</v>
@@ -3981,31 +4048,31 @@
         <v>22.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S20" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="T20" t="n">
-        <v>38.4</v>
+        <v>38.6</v>
       </c>
       <c r="U20" t="n">
         <v>19.9</v>
       </c>
       <c r="V20" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="X20" t="n">
         <v>4.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z20" t="n">
         <v>20.8</v>
@@ -4014,13 +4081,13 @@
         <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
         <v>8</v>
@@ -4041,22 +4108,22 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN20" t="n">
         <v>2</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4077,25 +4144,25 @@
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB20" t="n">
         <v>24</v>
       </c>
       <c r="BC20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" t="n">
         <v>25</v>
       </c>
       <c r="G21" t="n">
-        <v>0.432</v>
+        <v>0.419</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4142,43 +4209,43 @@
         <v>37.5</v>
       </c>
       <c r="J21" t="n">
-        <v>85.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L21" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="M21" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.357</v>
+        <v>0.359</v>
       </c>
       <c r="O21" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P21" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.802</v>
+        <v>0.801</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="T21" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U21" t="n">
         <v>21.5</v>
       </c>
       <c r="V21" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W21" t="n">
         <v>7.3</v>
@@ -4187,34 +4254,34 @@
         <v>2.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z21" t="n">
         <v>20</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
         <v>103.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.5</v>
+        <v>-2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
       </c>
       <c r="AF21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG21" t="n">
         <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
@@ -4226,7 +4293,7 @@
         <v>29</v>
       </c>
       <c r="AL21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
@@ -4238,7 +4305,7 @@
         <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ21" t="n">
         <v>7</v>
@@ -4253,19 +4320,19 @@
         <v>12</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV21" t="n">
         <v>21</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
         <v>35</v>
       </c>
       <c r="G22" t="n">
-        <v>0.222</v>
+        <v>0.205</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
       </c>
       <c r="I22" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="J22" t="n">
-        <v>81.2</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L22" t="n">
         <v>4</v>
@@ -4336,31 +4403,31 @@
         <v>10.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O22" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="P22" t="n">
-        <v>25.5</v>
+        <v>25.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R22" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S22" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T22" t="n">
-        <v>42.8</v>
+        <v>42.6</v>
       </c>
       <c r="U22" t="n">
         <v>20</v>
       </c>
       <c r="V22" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="W22" t="n">
         <v>6.9</v>
@@ -4369,40 +4436,40 @@
         <v>4.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB22" t="n">
         <v>96.09999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.4</v>
+        <v>-6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AF22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG22" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
         <v>23</v>
@@ -4417,10 +4484,10 @@
         <v>9</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ22" t="n">
         <v>12</v>
@@ -4432,7 +4499,7 @@
         <v>11</v>
       </c>
       <c r="AT22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AU22" t="n">
         <v>24</v>
@@ -4441,25 +4508,25 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA22" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB22" t="n">
         <v>25</v>
       </c>
       <c r="BC22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>7.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,19 +4645,19 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>22</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
@@ -4599,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
         <v>6</v>
@@ -4614,22 +4681,22 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
       </c>
       <c r="AV23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW23" t="n">
         <v>14</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>16</v>
       </c>
       <c r="AX23" t="n">
         <v>6</v>
       </c>
       <c r="AY23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ23" t="n">
         <v>9</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E24" t="n">
         <v>21</v>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>0.488</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4688,28 +4755,28 @@
         <v>37</v>
       </c>
       <c r="J24" t="n">
-        <v>80.3</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="M24" t="n">
         <v>13</v>
       </c>
       <c r="N24" t="n">
-        <v>0.332</v>
+        <v>0.336</v>
       </c>
       <c r="O24" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="P24" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.74</v>
+        <v>0.742</v>
       </c>
       <c r="R24" t="n">
         <v>12.7</v>
@@ -4718,22 +4785,22 @@
         <v>30</v>
       </c>
       <c r="T24" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U24" t="n">
         <v>20.5</v>
       </c>
       <c r="V24" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W24" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X24" t="n">
         <v>5.3</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z24" t="n">
         <v>20.1</v>
@@ -4742,13 +4809,13 @@
         <v>20.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -4760,16 +4827,16 @@
         <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>12</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK24" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4781,28 +4848,28 @@
         <v>27</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT24" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>15</v>
       </c>
       <c r="AV24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW24" t="n">
         <v>8</v>
@@ -4814,16 +4881,16 @@
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>19</v>
       </c>
       <c r="BB24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" t="n">
         <v>18</v>
       </c>
       <c r="G25" t="n">
-        <v>0.581</v>
+        <v>0.571</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,10 +4937,10 @@
         <v>38.3</v>
       </c>
       <c r="J25" t="n">
-        <v>77.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.495</v>
+        <v>0.496</v>
       </c>
       <c r="L25" t="n">
         <v>6.7</v>
@@ -4882,37 +4949,37 @@
         <v>17.3</v>
       </c>
       <c r="N25" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O25" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="P25" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
       <c r="R25" t="n">
         <v>9.6</v>
       </c>
       <c r="S25" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T25" t="n">
-        <v>41.3</v>
+        <v>41</v>
       </c>
       <c r="U25" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="V25" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="W25" t="n">
         <v>6.3</v>
       </c>
       <c r="X25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y25" t="n">
         <v>4.1</v>
@@ -4921,22 +4988,22 @@
         <v>20.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB25" t="n">
         <v>103.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
         <v>11</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>9</v>
       </c>
       <c r="AG25" t="n">
         <v>11</v>
@@ -4954,13 +5021,13 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
         <v>5</v>
@@ -4975,13 +5042,13 @@
         <v>27</v>
       </c>
       <c r="AS25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU25" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
         <v>30</v>
@@ -4990,7 +5057,7 @@
         <v>29</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY25" t="n">
         <v>6</v>
@@ -4999,7 +5066,7 @@
         <v>10</v>
       </c>
       <c r="BA25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -5037,58 +5104,58 @@
         <v>43</v>
       </c>
       <c r="E26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.628</v>
+        <v>0.605</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.1</v>
+        <v>35.8</v>
       </c>
       <c r="J26" t="n">
-        <v>78.5</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.46</v>
+        <v>0.454</v>
       </c>
       <c r="L26" t="n">
         <v>7.4</v>
       </c>
       <c r="M26" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N26" t="n">
         <v>0.379</v>
       </c>
       <c r="O26" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="P26" t="n">
-        <v>25.3</v>
+        <v>24.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R26" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U26" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V26" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W26" t="n">
         <v>7</v>
@@ -5097,22 +5164,22 @@
         <v>5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
@@ -5121,34 +5188,34 @@
         <v>8</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
         <v>10</v>
       </c>
       <c r="AI26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>21</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>22</v>
-      </c>
       <c r="AK26" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO26" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
         <v>16</v>
@@ -5160,34 +5227,34 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA26" t="n">
         <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5367,7 @@
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG27" t="n">
         <v>28</v>
@@ -5312,7 +5379,7 @@
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK27" t="n">
         <v>25</v>
@@ -5330,7 +5397,7 @@
         <v>7</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
@@ -5357,7 +5424,7 @@
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5366,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>2.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5494,7 +5561,7 @@
         <v>14</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
@@ -5503,7 +5570,7 @@
         <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN28" t="n">
         <v>3</v>
@@ -5536,7 +5603,7 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY28" t="n">
         <v>7</v>
@@ -5548,7 +5615,7 @@
         <v>30</v>
       </c>
       <c r="BB28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC28" t="n">
         <v>8</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -5661,16 +5728,16 @@
         <v>2</v>
       </c>
       <c r="AE29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
         <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI29" t="n">
         <v>20</v>
@@ -5679,7 +5746,7 @@
         <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL29" t="n">
         <v>19</v>
@@ -5688,13 +5755,13 @@
         <v>22</v>
       </c>
       <c r="AN29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,13 +5770,13 @@
         <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT29" t="n">
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5718,16 +5785,16 @@
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB29" t="n">
         <v>20</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -5849,7 +5916,7 @@
         <v>15</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH30" t="n">
         <v>12</v>
@@ -5900,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY30" t="n">
         <v>16</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
@@ -5944,52 +6011,52 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" t="n">
         <v>9</v>
       </c>
       <c r="F31" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" t="n">
-        <v>0.205</v>
+        <v>0.209</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J31" t="n">
         <v>81.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L31" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M31" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N31" t="n">
-        <v>0.325</v>
+        <v>0.324</v>
       </c>
       <c r="O31" t="n">
         <v>16.6</v>
       </c>
       <c r="P31" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.757</v>
+        <v>0.756</v>
       </c>
       <c r="R31" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S31" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="T31" t="n">
         <v>39.6</v>
@@ -6004,46 +6071,46 @@
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y31" t="n">
         <v>5</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
         <v>19.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.3</v>
+        <v>94.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.1</v>
+        <v>-6.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF31" t="n">
         <v>28</v>
       </c>
       <c r="AG31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
         <v>16</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
@@ -6073,19 +6140,19 @@
         <v>25</v>
       </c>
       <c r="AU31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV31" t="n">
         <v>11</v>
       </c>
       <c r="AW31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-26-2008-09</t>
+          <t>2009-01-26</t>
         </is>
       </c>
     </row>
